--- a/spreadsheets/new/GSE130636.0.xlsx
+++ b/spreadsheets/new/GSE130636.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC43466-4E23-F449-BC99-A446F15420A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28720" windowHeight="15040" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1164">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -3511,13 +3517,16 @@
   </si>
   <si>
     <t>Retina Periphery</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3554,6 +3563,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3600,7 +3617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3632,9 +3649,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3666,6 +3701,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3841,75 +3894,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="115.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="115.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4088,7 +4137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4267,7 +4316,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -4425,7 +4474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -4604,12 +4653,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -4629,7 +4678,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -4649,7 +4698,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -4669,7 +4718,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -4689,7 +4738,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -4709,7 +4758,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -4735,93 +4784,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>233</v>
       </c>
@@ -5054,7 +5101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -5287,7 +5334,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5502,7 +5549,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>337</v>
       </c>
@@ -5735,12 +5782,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>398</v>
       </c>
@@ -5751,7 +5798,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>400</v>
       </c>
@@ -5762,7 +5809,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>401</v>
       </c>
@@ -5779,67 +5826,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="552.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="552.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>402</v>
       </c>
@@ -5994,7 +6039,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -6149,7 +6194,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -6298,7 +6343,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>503</v>
       </c>
@@ -6453,12 +6498,12 @@
         <v>553</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>554</v>
       </c>
@@ -6475,25 +6520,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1673.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1673.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>557</v>
       </c>
@@ -6522,7 +6566,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>566</v>
       </c>
@@ -6551,7 +6595,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>575</v>
       </c>
@@ -6580,7 +6624,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>584</v>
       </c>
@@ -6609,12 +6653,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>593</v>
       </c>
@@ -6640,28 +6684,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>599</v>
       </c>
@@ -6699,7 +6743,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>611</v>
       </c>
@@ -6737,7 +6781,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>621</v>
       </c>
@@ -6775,7 +6819,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>632</v>
       </c>
@@ -6813,12 +6857,12 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>644</v>
       </c>
@@ -6835,12 +6879,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>650</v>
       </c>
@@ -6851,21 +6895,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>651</v>
       </c>
@@ -6882,7 +6926,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>655</v>
       </c>
@@ -6899,7 +6943,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>660</v>
       </c>
@@ -6916,7 +6960,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>665</v>
       </c>
@@ -6933,12 +6977,12 @@
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>670</v>
       </c>
@@ -6949,46 +6993,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD197"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>671</v>
       </c>
@@ -7080,7 +7122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>683</v>
       </c>
@@ -7172,7 +7214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>692</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>702</v>
       </c>
@@ -7344,12 +7386,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>714</v>
       </c>
@@ -7372,7 +7414,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>719</v>
       </c>
@@ -7395,7 +7437,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>721</v>
       </c>
@@ -7418,7 +7460,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>723</v>
       </c>
@@ -7441,7 +7483,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>724</v>
       </c>
@@ -7464,7 +7506,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>726</v>
       </c>
@@ -7487,7 +7529,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>727</v>
       </c>
@@ -7510,7 +7552,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>729</v>
       </c>
@@ -7533,7 +7575,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>730</v>
       </c>
@@ -7556,7 +7598,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>732</v>
       </c>
@@ -7579,7 +7621,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>733</v>
       </c>
@@ -7602,7 +7644,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>735</v>
       </c>
@@ -7625,7 +7667,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>736</v>
       </c>
@@ -7648,7 +7690,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>738</v>
       </c>
@@ -7671,7 +7713,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>739</v>
       </c>
@@ -7694,7 +7736,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>741</v>
       </c>
@@ -7717,7 +7759,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>742</v>
       </c>
@@ -7740,7 +7782,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>744</v>
       </c>
@@ -7763,7 +7805,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>745</v>
       </c>
@@ -7786,7 +7828,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>747</v>
       </c>
@@ -7809,7 +7851,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>748</v>
       </c>
@@ -7832,7 +7874,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>750</v>
       </c>
@@ -7855,7 +7897,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>751</v>
       </c>
@@ -7878,7 +7920,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>753</v>
       </c>
@@ -7901,7 +7943,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>754</v>
       </c>
@@ -7924,7 +7966,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>756</v>
       </c>
@@ -7947,7 +7989,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>757</v>
       </c>
@@ -7970,7 +8012,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>759</v>
       </c>
@@ -7993,7 +8035,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>760</v>
       </c>
@@ -8016,7 +8058,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>762</v>
       </c>
@@ -8039,7 +8081,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>763</v>
       </c>
@@ -8062,7 +8104,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>765</v>
       </c>
@@ -8085,7 +8127,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>766</v>
       </c>
@@ -8108,7 +8150,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>768</v>
       </c>
@@ -8131,7 +8173,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>769</v>
       </c>
@@ -8154,7 +8196,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>771</v>
       </c>
@@ -8177,7 +8219,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>772</v>
       </c>
@@ -8200,7 +8242,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>774</v>
       </c>
@@ -8223,7 +8265,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>775</v>
       </c>
@@ -8246,7 +8288,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>777</v>
       </c>
@@ -8269,7 +8311,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>778</v>
       </c>
@@ -8292,7 +8334,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>780</v>
       </c>
@@ -8315,7 +8357,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>781</v>
       </c>
@@ -8338,7 +8380,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>783</v>
       </c>
@@ -8361,7 +8403,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>784</v>
       </c>
@@ -8384,7 +8426,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>786</v>
       </c>
@@ -8407,7 +8449,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>787</v>
       </c>
@@ -8430,7 +8472,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>789</v>
       </c>
@@ -8453,7 +8495,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>790</v>
       </c>
@@ -8476,7 +8518,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>792</v>
       </c>
@@ -8499,7 +8541,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>793</v>
       </c>
@@ -8522,7 +8564,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>795</v>
       </c>
@@ -8545,7 +8587,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>796</v>
       </c>
@@ -8568,7 +8610,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>798</v>
       </c>
@@ -8591,7 +8633,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>799</v>
       </c>
@@ -8614,7 +8656,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>801</v>
       </c>
@@ -8637,7 +8679,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>802</v>
       </c>
@@ -8660,7 +8702,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>804</v>
       </c>
@@ -8683,7 +8725,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>805</v>
       </c>
@@ -8706,7 +8748,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>807</v>
       </c>
@@ -8729,7 +8771,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>808</v>
       </c>
@@ -8752,7 +8794,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>810</v>
       </c>
@@ -8775,7 +8817,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>811</v>
       </c>
@@ -8798,7 +8840,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>813</v>
       </c>
@@ -8821,7 +8863,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>814</v>
       </c>
@@ -8844,7 +8886,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>816</v>
       </c>
@@ -8867,7 +8909,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>817</v>
       </c>
@@ -8890,7 +8932,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>819</v>
       </c>
@@ -8913,7 +8955,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>820</v>
       </c>
@@ -8936,7 +8978,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>822</v>
       </c>
@@ -8959,7 +9001,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>823</v>
       </c>
@@ -8982,7 +9024,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>825</v>
       </c>
@@ -9005,7 +9047,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>826</v>
       </c>
@@ -9028,7 +9070,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>828</v>
       </c>
@@ -9051,7 +9093,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>829</v>
       </c>
@@ -9074,7 +9116,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>831</v>
       </c>
@@ -9097,7 +9139,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>832</v>
       </c>
@@ -9120,7 +9162,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>834</v>
       </c>
@@ -9143,7 +9185,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>835</v>
       </c>
@@ -9166,7 +9208,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>837</v>
       </c>
@@ -9189,7 +9231,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>838</v>
       </c>
@@ -9212,7 +9254,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>840</v>
       </c>
@@ -9235,7 +9277,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>841</v>
       </c>
@@ -9258,7 +9300,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>843</v>
       </c>
@@ -9281,7 +9323,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>844</v>
       </c>
@@ -9304,7 +9346,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>846</v>
       </c>
@@ -9327,7 +9369,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>847</v>
       </c>
@@ -9350,7 +9392,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>849</v>
       </c>
@@ -9373,7 +9415,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>850</v>
       </c>
@@ -9396,7 +9438,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>852</v>
       </c>
@@ -9419,7 +9461,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>853</v>
       </c>
@@ -9442,7 +9484,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>855</v>
       </c>
@@ -9465,7 +9507,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>856</v>
       </c>
@@ -9488,7 +9530,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>858</v>
       </c>
@@ -9511,7 +9553,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>859</v>
       </c>
@@ -9534,7 +9576,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>861</v>
       </c>
@@ -9557,7 +9599,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>862</v>
       </c>
@@ -9580,7 +9622,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>864</v>
       </c>
@@ -9603,7 +9645,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>865</v>
       </c>
@@ -9626,7 +9668,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>867</v>
       </c>
@@ -9649,7 +9691,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>868</v>
       </c>
@@ -9672,7 +9714,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>870</v>
       </c>
@@ -9695,7 +9737,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>871</v>
       </c>
@@ -9718,7 +9760,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>873</v>
       </c>
@@ -9741,7 +9783,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>874</v>
       </c>
@@ -9764,7 +9806,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>876</v>
       </c>
@@ -9787,7 +9829,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>877</v>
       </c>
@@ -9810,7 +9852,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>879</v>
       </c>
@@ -9833,7 +9875,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>880</v>
       </c>
@@ -9856,7 +9898,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>882</v>
       </c>
@@ -9879,7 +9921,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>883</v>
       </c>
@@ -9902,7 +9944,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>885</v>
       </c>
@@ -9925,7 +9967,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>886</v>
       </c>
@@ -9948,7 +9990,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>888</v>
       </c>
@@ -9971,7 +10013,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>889</v>
       </c>
@@ -9994,7 +10036,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>891</v>
       </c>
@@ -10017,7 +10059,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>892</v>
       </c>
@@ -10040,7 +10082,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>894</v>
       </c>
@@ -10063,7 +10105,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>895</v>
       </c>
@@ -10086,7 +10128,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>897</v>
       </c>
@@ -10109,7 +10151,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>898</v>
       </c>
@@ -10132,7 +10174,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>900</v>
       </c>
@@ -10155,7 +10197,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>901</v>
       </c>
@@ -10178,7 +10220,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>903</v>
       </c>
@@ -10201,7 +10243,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>904</v>
       </c>
@@ -10224,7 +10266,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>906</v>
       </c>
@@ -10247,7 +10289,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>907</v>
       </c>
@@ -10270,7 +10312,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>909</v>
       </c>
@@ -10293,7 +10335,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>910</v>
       </c>
@@ -10316,7 +10358,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>912</v>
       </c>
@@ -10339,7 +10381,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>913</v>
       </c>
@@ -10362,7 +10404,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>915</v>
       </c>
@@ -10385,7 +10427,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>916</v>
       </c>
@@ -10408,7 +10450,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>918</v>
       </c>
@@ -10431,7 +10473,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>919</v>
       </c>
@@ -10454,7 +10496,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>921</v>
       </c>
@@ -10477,7 +10519,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>922</v>
       </c>
@@ -10500,7 +10542,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>924</v>
       </c>
@@ -10523,7 +10565,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>925</v>
       </c>
@@ -10546,7 +10588,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>927</v>
       </c>
@@ -10569,7 +10611,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>928</v>
       </c>
@@ -10592,7 +10634,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>930</v>
       </c>
@@ -10615,7 +10657,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>931</v>
       </c>
@@ -10638,7 +10680,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>933</v>
       </c>
@@ -10661,7 +10703,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>934</v>
       </c>
@@ -10684,7 +10726,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>936</v>
       </c>
@@ -10707,7 +10749,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>937</v>
       </c>
@@ -10730,7 +10772,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>939</v>
       </c>
@@ -10753,7 +10795,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>940</v>
       </c>
@@ -10776,7 +10818,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>942</v>
       </c>
@@ -10799,7 +10841,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>943</v>
       </c>
@@ -10822,7 +10864,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>945</v>
       </c>
@@ -10845,7 +10887,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>946</v>
       </c>
@@ -10868,7 +10910,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>948</v>
       </c>
@@ -10891,7 +10933,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>949</v>
       </c>
@@ -10914,7 +10956,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>951</v>
       </c>
@@ -10937,7 +10979,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>952</v>
       </c>
@@ -10960,7 +11002,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>954</v>
       </c>
@@ -10983,7 +11025,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>955</v>
       </c>
@@ -11006,7 +11048,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>957</v>
       </c>
@@ -11029,7 +11071,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>958</v>
       </c>
@@ -11052,7 +11094,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>960</v>
       </c>
@@ -11075,7 +11117,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>961</v>
       </c>
@@ -11098,7 +11140,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>963</v>
       </c>
@@ -11121,7 +11163,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>964</v>
       </c>
@@ -11144,7 +11186,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>966</v>
       </c>
@@ -11167,7 +11209,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>967</v>
       </c>
@@ -11190,7 +11232,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>969</v>
       </c>
@@ -11213,7 +11255,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>970</v>
       </c>
@@ -11236,7 +11278,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>972</v>
       </c>
@@ -11259,7 +11301,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>973</v>
       </c>
@@ -11282,7 +11324,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>975</v>
       </c>
@@ -11305,7 +11347,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>976</v>
       </c>
@@ -11328,7 +11370,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>978</v>
       </c>
@@ -11351,7 +11393,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>979</v>
       </c>
@@ -11374,7 +11416,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>981</v>
       </c>
@@ -11397,7 +11439,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>982</v>
       </c>
@@ -11420,7 +11462,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>984</v>
       </c>
@@ -11443,7 +11485,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>985</v>
       </c>
@@ -11466,7 +11508,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>987</v>
       </c>
@@ -11489,7 +11531,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>988</v>
       </c>
@@ -11512,7 +11554,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>990</v>
       </c>
@@ -11535,7 +11577,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>991</v>
       </c>
@@ -11558,7 +11600,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>993</v>
       </c>
@@ -11581,7 +11623,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>994</v>
       </c>
@@ -11604,7 +11646,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>996</v>
       </c>
@@ -11627,7 +11669,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>997</v>
       </c>
@@ -11650,7 +11692,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>999</v>
       </c>
@@ -11673,7 +11715,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1000</v>
       </c>
@@ -11696,7 +11738,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1002</v>
       </c>
@@ -11719,7 +11761,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1003</v>
       </c>
@@ -11742,7 +11784,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1005</v>
       </c>
@@ -11771,34 +11813,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="419.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="419.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>682</v>
       </c>
@@ -11854,7 +11898,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -11910,7 +11954,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -11960,7 +12004,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>713</v>
       </c>
@@ -12016,12 +12060,12 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>718</v>
       </c>
@@ -12030,6 +12074,9 @@
       </c>
       <c r="G6" t="s">
         <v>1053</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -12038,76 +12085,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -12289,7 +12333,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -12471,7 +12515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -12632,7 +12676,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -12814,12 +12858,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -12839,7 +12883,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -12859,7 +12903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -12879,7 +12923,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -12899,7 +12943,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -12919,7 +12963,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>232</v>
       </c>
